--- a/data-raw/desc_subfuncao.xlsx
+++ b/data-raw/desc_subfuncao.xlsx
@@ -1588,8 +1588,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1f47f591d2cee6122bef25da059db4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="856a76bd91320367711680b85ef754cf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -1668,7 +1668,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1699,7 +1699,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1718,7 +1718,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1746,8 +1746,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1852,18 +1852,26 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B55B84A-22BB-41B7-A4F7-FF013B0091D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7D3446-E305-4608-9FB3-21BDE35FB24E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB213760-831D-44B4-8BD0-1FB7EEED6F65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAA5A96-60E0-4C51-8584-699CBD88CF93}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EC47E8-0B4E-4646-AEF3-B5240E5E078B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8736FE-6255-4FD1-8C32-47721AF24FF0}"/>
 </file>
--- a/data-raw/desc_subfuncao.xlsx
+++ b/data-raw/desc_subfuncao.xlsx
@@ -1588,8 +1588,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -1614,6 +1614,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1693,6 +1694,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1859,13 +1865,12 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7D3446-E305-4608-9FB3-21BDE35FB24E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{280E4225-92D5-404F-B29B-78FD7F2EE672}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data-raw/desc_subfuncao.xlsx
+++ b/data-raw/desc_subfuncao.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29301"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2.Programação e Normas\2023\PPAG 2023 e LOA 2023\Tabelas de Apoio - geração dos volumes 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_EC26C91BF040C27A188F7B201667BB70E4AC1C1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -249,6 +250,9 @@
     <t>DIFUSÃO DO CONHECIMENTO CIENTÍFICO E TECNOLÓGICO</t>
   </si>
   <si>
+    <t>ABASTECIMENTO</t>
+  </si>
+  <si>
     <t>EXTENSÃO RURAL</t>
   </si>
   <si>
@@ -361,16 +365,13 @@
   </si>
   <si>
     <t>RESERVA DE CONTINGÊNCIA</t>
-  </si>
-  <si>
-    <t>ABASTECIMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,20 +681,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>31</v>
       </c>
@@ -709,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>32</v>
       </c>
@@ -717,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>61</v>
       </c>
@@ -725,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>62</v>
       </c>
@@ -733,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>91</v>
       </c>
@@ -741,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>92</v>
       </c>
@@ -749,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>121</v>
       </c>
@@ -757,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>122</v>
       </c>
@@ -765,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>123</v>
       </c>
@@ -773,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>124</v>
       </c>
@@ -781,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>125</v>
       </c>
@@ -789,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>126</v>
       </c>
@@ -797,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>127</v>
       </c>
@@ -805,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>128</v>
       </c>
@@ -813,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>129</v>
       </c>
@@ -821,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>130</v>
       </c>
@@ -829,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>131</v>
       </c>
@@ -837,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>151</v>
       </c>
@@ -845,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>152</v>
       </c>
@@ -853,7 +854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>153</v>
       </c>
@@ -861,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>181</v>
       </c>
@@ -869,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>182</v>
       </c>
@@ -877,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>183</v>
       </c>
@@ -885,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>211</v>
       </c>
@@ -893,7 +894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>212</v>
       </c>
@@ -901,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>241</v>
       </c>
@@ -909,7 +910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>242</v>
       </c>
@@ -917,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>243</v>
       </c>
@@ -925,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>244</v>
       </c>
@@ -933,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>271</v>
       </c>
@@ -941,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>272</v>
       </c>
@@ -949,7 +950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>273</v>
       </c>
@@ -957,7 +958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>274</v>
       </c>
@@ -965,7 +966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>301</v>
       </c>
@@ -973,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>302</v>
       </c>
@@ -981,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>303</v>
       </c>
@@ -989,7 +990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>304</v>
       </c>
@@ -997,7 +998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>305</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>306</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>331</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>332</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>333</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>334</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>361</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>362</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>363</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>364</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>365</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>366</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>367</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>368</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>391</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>392</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>421</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>422</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>423</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>451</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>452</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>453</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>481</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>482</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>511</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>512</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>541</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>542</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>543</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>544</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>545</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>571</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>572</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>573</v>
       </c>
@@ -1269,316 +1270,316 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>605</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>606</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>607</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>608</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>609</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>631</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>632</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>661</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>662</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>663</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>664</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>665</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>691</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>692</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>693</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>694</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>695</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>721</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>722</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>751</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>752</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>753</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>754</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>781</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>782</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>783</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>784</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>785</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>811</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>812</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>813</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>841</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>842</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>843</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>844</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>845</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>846</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>847</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>999</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1589,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -1615,6 +1643,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1697,6 +1726,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -1842,35 +1876,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{280E4225-92D5-404F-B29B-78FD7F2EE672}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8736FE-6255-4FD1-8C32-47721AF24FF0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,5 +1885,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8736FE-6255-4FD1-8C32-47721AF24FF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60504B4E-13D0-4AB7-834B-C4A00410F540}"/>
 </file>